--- a/docs/Datos del predio/Documentación/Relación de lotes e ingresos/Correos y celular - Migración.xlsx
+++ b/docs/Datos del predio/Documentación/Relación de lotes e ingresos/Correos y celular - Migración.xlsx
@@ -4520,247 +4520,7 @@
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5199,7 +4959,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -14298,25 +14058,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="duplicateValues" dxfId="33" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A1048576 A1:A244">
-    <cfRule type="duplicateValues" dxfId="32" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="duplicateValues" dxfId="31" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64 F66:F67 F154:F155 F1:F33 F44:F52 F54:F57 F59:F61 F42 F35:F40 F87:F152 F80:F85 F69:F78 F159:F181 F183:F189 F230 F232:F244 F246:F1048576 F192:F217 F219:F227">
-    <cfRule type="duplicateValues" dxfId="29" priority="280"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="280"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F156">
-    <cfRule type="duplicateValues" dxfId="28" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A255:A1048576 A1:A253">
-    <cfRule type="duplicateValues" dxfId="27" priority="306"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="306"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="C174" r:id="rId1" display="Mariat567@huertoslaceiba.com"/>
@@ -14485,8 +14245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ253"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA253" sqref="A1:AA253"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M47" sqref="M1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35516,30 +35276,30 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="O1:O1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P1048576">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M244 M254:M1048576">
-    <cfRule type="duplicateValues" dxfId="17" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C244 C254:C1048576">
-    <cfRule type="duplicateValues" dxfId="16" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="duplicateValues" dxfId="15" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M245:M253">
-    <cfRule type="duplicateValues" dxfId="14" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:M1048576">
-    <cfRule type="duplicateValues" dxfId="13" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C245:C253">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="O23" r:id="rId1"/>
